--- a/Docs/todo.xlsx
+++ b/Docs/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t xml:space="preserve">Priority</t>
   </si>
@@ -59,67 +59,97 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">gfx controller</t>
+    <t xml:space="preserve">interface selection du gamemode dans le menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,+ selection du nb de kills avant victoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrer un tacle (avec un autre tacle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floating text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprite sur controller</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/AirConsole/airconsole-controls</t>
   </si>
   <si>
-    <t xml:space="preserve">PS damage projectile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuManager  meilleure gestion des contrôles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laisser horizontal enclenchée fait défiler les maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev event mouse LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On voit un curseur qui apporte un raccourci qui va faire qql chose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS damage tackle</t>
+    <t xml:space="preserve">inverser de place les boutons X et B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre le layer du SpriteRenderer du projectile supérieur à 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tackle in head = dmg crit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ feebdack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release : image loader doesn’t load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester on edge</t>
   </si>
   <si>
     <t xml:space="preserve">PS saut</t>
   </si>
   <si>
-    <t xml:space="preserve">locker certains level dans le main level</t>
+    <t xml:space="preserve">selecteur de menu plutôt en mode SpeedRunners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.-&gt; montrer au joueur que si il est AirConsole Hero, il debloque des levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cooldown on death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplacer boutons X et B par quelque chose de plus affordant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son footstep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son tackle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamemode CTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lancer projectile = stop velocity en Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inutile dans le LD pour l’instant</t>
   </si>
   <si>
     <t xml:space="preserve">Unity analytics</t>
   </si>
   <si>
-    <t xml:space="preserve">victoire -&gt; slow time et zoom sur player</t>
-  </si>
-  <si>
     <t xml:space="preserve">Show Ads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son marche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son tackle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS crown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selecteur de menu plutôt en mode SpeedRunners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.-&gt; montrer au joueur que si il est AirConsole Hero, il debloque des levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lancer projectile = stop velocity en Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamemode CTF</t>
   </si>
 </sst>
 </file>
@@ -335,12 +365,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -466,12 +496,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,18 +558,18 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="89.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -562,341 +592,375 @@
         <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D17" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="D18" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="15"/>
+      <c r="D46" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C18:C43 A1:D17">

--- a/Docs/todo.xlsx
+++ b/Docs/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t xml:space="preserve">Priority</t>
   </si>
@@ -59,10 +59,7 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">interface selection du gamemode dans le menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,+ selection du nb de kills avant victoire</t>
+    <t xml:space="preserve">image loader doesn’t work on release</t>
   </si>
   <si>
     <t xml:space="preserve">Contrer un tacle (avec un autre tacle)</t>
@@ -149,7 +146,7 @@
     <t xml:space="preserve">Unity analytics</t>
   </si>
   <si>
-    <t xml:space="preserve">Show Ads</t>
+    <t xml:space="preserve">empêcher lancement du jeu si il y a 1 joueur ou moins</t>
   </si>
 </sst>
 </file>
@@ -496,12 +493,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A20:D20 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,18 +555,18 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -592,58 +589,56 @@
         <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>2</v>
@@ -653,7 +648,7 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>2</v>
@@ -663,35 +658,35 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>3</v>
@@ -701,19 +696,19 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>4</v>
@@ -723,7 +718,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>4</v>
@@ -733,7 +728,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
@@ -743,7 +738,7 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>4</v>
@@ -753,7 +748,7 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
       <c r="B16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>4</v>
@@ -762,34 +757,34 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
       <c r="B19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>5</v>
@@ -798,18 +793,18 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="D21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
